--- a/resultados/vazao_transferencias/vazao_transferencia_guarapiranga.xlsx
+++ b/resultados/vazao_transferencias/vazao_transferencia_guarapiranga.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,7 +412,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vazão captada da ETA</t>
+          <t>Vazão captada da ETA (m³/s)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -423,6 +423,11 @@
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Q Rev.Taquac.</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -485,6 +490,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -545,6 +555,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -605,6 +620,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -665,6 +685,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -725,6 +750,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -785,6 +815,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -845,6 +880,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -905,6 +945,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -965,6 +1010,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -1025,6 +1075,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -1085,6 +1140,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -1145,6 +1205,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -1205,6 +1270,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -1265,6 +1335,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1325,6 +1400,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -1385,6 +1465,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1445,6 +1530,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -1505,6 +1595,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -1565,6 +1660,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -1625,6 +1725,11 @@
           <t>0,437</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -1685,6 +1790,11 @@
           <t>1,75</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -1745,6 +1855,11 @@
           <t>1,837</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -1805,6 +1920,11 @@
           <t>1,837</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -1865,6 +1985,11 @@
           <t>2,841</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
@@ -1925,6 +2050,11 @@
           <t>2,584</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -1985,6 +2115,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
@@ -2045,6 +2180,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -2105,6 +2245,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -2165,6 +2310,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -2225,6 +2375,11 @@
           <t>3,466</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -2285,6 +2440,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
@@ -2345,6 +2505,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -2405,6 +2570,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -2465,6 +2635,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
@@ -2525,6 +2700,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
@@ -2585,6 +2765,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -2645,6 +2830,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
@@ -2705,6 +2895,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
@@ -2765,6 +2960,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
@@ -2825,6 +3025,11 @@
           <t>2,42</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
@@ -2885,6 +3090,11 @@
           <t>2,54</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
@@ -2945,6 +3155,11 @@
           <t>3,466</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
@@ -3005,6 +3220,11 @@
           <t>3,417</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
@@ -3065,6 +3285,11 @@
           <t>1,683</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
@@ -3125,6 +3350,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
@@ -3185,6 +3415,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
@@ -3245,6 +3480,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -3305,6 +3545,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
@@ -3365,6 +3610,11 @@
           <t>2,335</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
@@ -3425,6 +3675,11 @@
           <t>2,708</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
@@ -3485,6 +3740,11 @@
           <t>1,364</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
@@ -3545,6 +3805,11 @@
           <t>3,25</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
@@ -3605,6 +3870,11 @@
           <t>3,216</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -3665,6 +3935,11 @@
           <t>3,088</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
@@ -3725,6 +4000,11 @@
           <t>2,913</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -3785,6 +4065,11 @@
           <t>3,92</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -3845,6 +4130,11 @@
           <t>3,2</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -3905,6 +4195,11 @@
           <t>2,15</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
@@ -3965,6 +4260,11 @@
           <t>3,86</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -4025,6 +4325,11 @@
           <t>3,8</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
@@ -4085,6 +4390,11 @@
           <t>3,15</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
@@ -4145,6 +4455,11 @@
           <t>3,944</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -4205,6 +4520,11 @@
           <t>4,01</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -4265,6 +4585,11 @@
           <t>3,1608</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -4325,6 +4650,11 @@
           <t>3,99</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
@@ -4385,6 +4715,11 @@
           <t>3,95</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -4445,6 +4780,11 @@
           <t>4,19</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
@@ -4505,6 +4845,11 @@
           <t>4,11</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -4565,6 +4910,11 @@
           <t>4,31</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
@@ -4625,6 +4975,11 @@
           <t>3,923</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
@@ -4685,6 +5040,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
@@ -4745,6 +5105,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -4805,6 +5170,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -4865,6 +5235,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
@@ -4925,6 +5300,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
@@ -4985,6 +5365,11 @@
           <t>3,11</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -5045,6 +5430,11 @@
           <t>3,95</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
@@ -5105,6 +5495,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -5165,6 +5560,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
@@ -5225,6 +5625,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
@@ -5285,6 +5690,11 @@
           <t>3,59</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
@@ -5345,6 +5755,11 @@
           <t>4,09</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -5405,6 +5820,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -5465,6 +5885,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
@@ -5525,6 +5950,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -5585,6 +6015,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -5645,6 +6080,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
@@ -5705,6 +6145,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
@@ -5765,6 +6210,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -5825,6 +6275,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -5885,6 +6340,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
@@ -5945,6 +6405,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -6005,6 +6470,11 @@
           <t>1,37</t>
         </is>
       </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
@@ -6065,6 +6535,11 @@
           <t>3,1</t>
         </is>
       </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -6125,6 +6600,11 @@
           <t>3,1</t>
         </is>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -6185,6 +6665,11 @@
           <t>3,1</t>
         </is>
       </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
@@ -6245,6 +6730,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -6305,6 +6795,11 @@
           <t>4,06</t>
         </is>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -6365,6 +6860,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -6425,6 +6925,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
@@ -6485,6 +6990,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
@@ -6545,6 +7055,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
@@ -6605,6 +7120,11 @@
           <t>4,05</t>
         </is>
       </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
@@ -6665,6 +7185,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
@@ -6725,6 +7250,11 @@
           <t>4,05</t>
         </is>
       </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
@@ -6785,6 +7315,11 @@
           <t>4,05</t>
         </is>
       </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -6845,6 +7380,11 @@
           <t>2,05</t>
         </is>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
@@ -6905,6 +7445,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
@@ -6965,6 +7510,11 @@
           <t>2,27</t>
         </is>
       </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
@@ -7025,6 +7575,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
@@ -7085,6 +7640,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
@@ -7145,6 +7705,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
@@ -7205,6 +7770,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
@@ -7265,6 +7835,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
@@ -7325,6 +7900,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
@@ -7385,6 +7965,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
@@ -7445,6 +8030,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
@@ -7505,6 +8095,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
@@ -7565,6 +8160,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
@@ -7625,6 +8225,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
@@ -7685,6 +8290,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
@@ -7745,6 +8355,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
@@ -7805,6 +8420,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
@@ -7865,6 +8485,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
@@ -7925,6 +8550,11 @@
           <t>3,55</t>
         </is>
       </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
@@ -7985,6 +8615,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
@@ -8045,6 +8680,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
@@ -8105,6 +8745,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
@@ -8165,6 +8810,11 @@
           <t>4,02</t>
         </is>
       </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
@@ -8225,6 +8875,11 @@
           <t>2,68</t>
         </is>
       </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
@@ -8285,6 +8940,11 @@
           <t>3,63</t>
         </is>
       </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
@@ -8345,6 +9005,11 @@
           <t>3,857</t>
         </is>
       </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
@@ -8405,6 +9070,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
@@ -8465,6 +9135,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
@@ -8525,6 +9200,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
@@ -8585,6 +9265,11 @@
           <t>4,03</t>
         </is>
       </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
@@ -8645,6 +9330,11 @@
           <t>2,08</t>
         </is>
       </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
@@ -8705,6 +9395,11 @@
           <t>3,8</t>
         </is>
       </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
@@ -8765,6 +9460,11 @@
           <t>2,9</t>
         </is>
       </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
@@ -8825,6 +9525,11 @@
           <t>3,7</t>
         </is>
       </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
@@ -8885,6 +9590,11 @@
           <t>3,66</t>
         </is>
       </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
@@ -8945,6 +9655,11 @@
           <t>3,79</t>
         </is>
       </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
@@ -9005,6 +9720,11 @@
           <t>3,75</t>
         </is>
       </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
@@ -9065,6 +9785,11 @@
           <t>3,74</t>
         </is>
       </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
@@ -9125,6 +9850,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
@@ -9185,6 +9915,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
@@ -9245,6 +9980,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
@@ -9305,6 +10045,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
@@ -9365,6 +10110,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
@@ -9425,6 +10175,11 @@
           <t>2,2</t>
         </is>
       </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
@@ -9485,6 +10240,11 @@
           <t>3,9</t>
         </is>
       </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
@@ -9545,6 +10305,11 @@
           <t>3,35</t>
         </is>
       </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -9605,6 +10370,11 @@
           <t>3,7</t>
         </is>
       </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -9665,6 +10435,11 @@
           <t>3,36</t>
         </is>
       </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -9725,6 +10500,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
@@ -9785,6 +10565,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
@@ -9845,6 +10630,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -9905,6 +10695,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -9965,6 +10760,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
@@ -10025,6 +10825,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -10085,6 +10890,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
@@ -10145,6 +10955,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
@@ -10205,6 +11020,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
@@ -10265,6 +11085,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
@@ -10325,6 +11150,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
@@ -10385,6 +11215,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
@@ -10445,6 +11280,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
@@ -10505,6 +11345,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
@@ -10565,6 +11410,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
@@ -10625,6 +11475,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
@@ -10685,6 +11540,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
@@ -10745,6 +11605,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
@@ -10805,6 +11670,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
@@ -10865,6 +11735,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
@@ -10925,6 +11800,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
@@ -10985,6 +11865,11 @@
           <t>0,677</t>
         </is>
       </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
@@ -11045,6 +11930,11 @@
           <t>3,74</t>
         </is>
       </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
@@ -11105,6 +11995,11 @@
           <t>4,15</t>
         </is>
       </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
@@ -11165,6 +12060,11 @@
           <t>4,2</t>
         </is>
       </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
@@ -11225,6 +12125,11 @@
           <t>3,32</t>
         </is>
       </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
@@ -11285,6 +12190,11 @@
           <t>3,48</t>
         </is>
       </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
@@ -11345,10 +12255,15 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -11357,12 +12272,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>83,5</t>
+          <t>76,23</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -11372,12 +12287,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64,2</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -11387,12 +12302,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
